--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -1,23 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EasyTest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>journeyType</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>London Luton</t>
+  </si>
+  <si>
+    <t>destinationCountry</t>
+  </si>
+  <si>
+    <t>destinationAirport</t>
+  </si>
+  <si>
+    <t>departureAirport</t>
+  </si>
+  <si>
+    <t>departureCountry</t>
+  </si>
+  <si>
+    <t>Belfast Intl</t>
+  </si>
+  <si>
+    <t>departureMonthYear</t>
+  </si>
+  <si>
+    <t>departureDay</t>
+  </si>
+  <si>
+    <t>returnDay</t>
+  </si>
+  <si>
+    <t>returnMonthYear</t>
+  </si>
+  <si>
+    <t>adultCount</t>
+  </si>
+  <si>
+    <t>childCount</t>
+  </si>
+  <si>
+    <t>infantCount</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t>outboundTicketType</t>
+  </si>
+  <si>
+    <t>inboundTicketType</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>selectDisplayedTicket</t>
+  </si>
+  <si>
+    <t>addBag15kg</t>
+  </si>
+  <si>
+    <t>addBag23kg</t>
+  </si>
+  <si>
+    <t>addGolfEquipment20kg</t>
+  </si>
+  <si>
+    <t>addSkiEquipment20kg</t>
+  </si>
+  <si>
+    <t>addSnowboardEquipment20kg</t>
+  </si>
+  <si>
+    <t>addSportFirearmsEquipment20kg</t>
+  </si>
+  <si>
+    <t>addOtherSmallSportsEquipment20kg</t>
+  </si>
+  <si>
+    <t>addBicycleEquipment32kg</t>
+  </si>
+  <si>
+    <t>addCanoeEquipment32kg</t>
+  </si>
+  <si>
+    <t>addWindSurferEquipment32kg</t>
+  </si>
+  <si>
+    <t>addHangGliderEquipment32kg</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +155,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +449,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
